--- a/pred_ohlcv/54_21/2020-01-23 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LTC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-1072.74108797</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1071.20728797</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1117.62838797</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1187.38788797</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1080.14268797</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-293.8865843999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-417.3905844</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-417.3905844</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-418.5305844</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-413.3161843999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-409.3161843999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-455.8253843999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-345.8253843999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>363.4614659499999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>384.1771659499999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>377.0345659499999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>377.0523659499999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>190.3840659499999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>197.4173659499999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>196.2529659499999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>935.2769500300001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>931.7089500300001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1281.99505003</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1320.60705003</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1718.53895003</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2489.07975003</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2449.60105003</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2510.60725003</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2506.65425003</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2396.55805003</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2392.05805003</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2305.65785003</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2201.07185003</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2201.15476047</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2232.79885003</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2227.79885003</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2236.38385003</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2197.11322053</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2142.02832053</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2138.68892053</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2257.51306679</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2257.21356679</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2363.94019514</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2368.937127820001</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2362.790127820001</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2362.790127820001</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2353.676127820001</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2353.676127820001</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2353.676127820001</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2353.66862782</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2355.66862782</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2392.95562782</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1962.06282782</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1327.54372782</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LTC ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-1071.20728797</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1187.38788797</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1080.14268797</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-995.9107879699998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-931.0213879699998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-293.8865843999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-417.3905844</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-417.3905844</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-418.5305844</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-413.3161843999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-409.3161843999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-455.8253843999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-345.8253843999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>363.4614659499999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>384.1771659499999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>377.0345659499999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>377.0523659499999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>190.3840659499999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>197.4173659499999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>196.2529659499999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>935.2769500300001</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>931.7089500300001</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1281.99505003</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1320.60705003</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1718.53895003</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2402.74585003</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2536.71435003</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2489.07975003</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2449.60105003</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2510.60725003</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2506.65425003</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2396.55805003</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2392.05805003</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2305.65785003</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2232.79885003</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2227.79885003</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2236.38385003</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2368.937127820001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
